--- a/Dokumente/02_Arbeitsbereich/01_Projekthandbuch/Risikoliste.xlsx
+++ b/Dokumente/02_Arbeitsbereich/01_Projekthandbuch/Risikoliste.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\iCloudDrive\UniBw\6. Trimester\Höhere Prog und Software Eng\Praktukum SE\Projektmanager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Johannes/SE-Project2018/Dokumente/02_Arbeitsbereich/01_Projekthandbuch/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="6360" yWindow="2040" windowWidth="31460" windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="Risiken" sheetId="1" r:id="rId1"/>
     <sheet name="Maßnahmen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Risiken</t>
   </si>
@@ -106,12 +112,38 @@
   </si>
   <si>
     <t>Restrisikoklasse</t>
+  </si>
+  <si>
+    <t>Ausfall Teammitglied</t>
+  </si>
+  <si>
+    <t>Langzeitkrankheit</t>
+  </si>
+  <si>
+    <t>Johannes Techel</t>
+  </si>
+  <si>
+    <t>Übernahme der
+Aufgaben von 
+ausgefallenem</t>
+  </si>
+  <si>
+    <t>Katastrophal</t>
+  </si>
+  <si>
+    <t>Aktiv</t>
+  </si>
+  <si>
+    <t>Gefährlich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,16 +185,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,14 +202,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,30 +505,31 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -519,21 +567,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43383</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>30000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -543,11 +615,11 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -557,11 +629,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -571,11 +643,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -585,11 +657,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -599,11 +671,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -613,11 +685,11 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -627,11 +699,11 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -641,11 +713,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -655,11 +727,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -669,11 +741,11 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -683,11 +755,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -697,11 +769,11 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -711,16 +783,16 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -761,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -776,7 +848,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -791,7 +863,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -806,7 +878,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -821,7 +893,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -848,9 +920,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>

--- a/Dokumente/02_Arbeitsbereich/01_Projekthandbuch/Risikoliste.xlsx
+++ b/Dokumente/02_Arbeitsbereich/01_Projekthandbuch/Risikoliste.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2040" windowWidth="31460" windowHeight="18360"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Risiken" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Risiken</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Ausfall Teammitglied</t>
-  </si>
-  <si>
-    <t>Langzeitkrankheit</t>
   </si>
   <si>
     <t>Johannes Techel</t>
@@ -135,6 +132,32 @@
   </si>
   <si>
     <t>Gefährlich</t>
+  </si>
+  <si>
+    <t>Netzwerkprobleme</t>
+  </si>
+  <si>
+    <t>Versionsverwaltungs-
+sytem fällt aus</t>
+  </si>
+  <si>
+    <t>Motivationsverlust</t>
+  </si>
+  <si>
+    <t>Unzureichende 
+Kompentenz</t>
+  </si>
+  <si>
+    <t>Langzeitkrankheit,
+Private Angelenheiten</t>
+  </si>
+  <si>
+    <t>Unterschätzung
+Workload</t>
+  </si>
+  <si>
+    <t>Ausfall Betreuer/
+Kunde</t>
   </si>
 </sst>
 </file>
@@ -208,19 +231,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +528,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,17 +597,17 @@
       <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="5">
         <v>43383</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="7">
         <v>0.1</v>
@@ -596,193 +619,217 @@
         <v>3000</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>

--- a/Dokumente/02_Arbeitsbereich/01_Projekthandbuch/Risikoliste.xlsx
+++ b/Dokumente/02_Arbeitsbereich/01_Projekthandbuch/Risikoliste.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Johannes/SE-Project2018/Dokumente/02_Arbeitsbereich/01_Projekthandbuch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\iCloudDrive\UniBw\6. Trimester\Höhere Prog und Software Eng\SE-Project2018\Dokumente\02_Arbeitsbereich\01_Projekthandbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="1860" yWindow="465" windowWidth="25605" windowHeight="14475"/>
   </bookViews>
   <sheets>
     <sheet name="Risiken" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,20 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Risiken</t>
   </si>
@@ -120,11 +120,6 @@
     <t>Johannes Techel</t>
   </si>
   <si>
-    <t>Übernahme der
-Aufgaben von 
-ausgefallenem</t>
-  </si>
-  <si>
     <t>Katastrophal</t>
   </si>
   <si>
@@ -137,33 +132,70 @@
     <t>Netzwerkprobleme</t>
   </si>
   <si>
-    <t>Versionsverwaltungs-
-sytem fällt aus</t>
-  </si>
-  <si>
     <t>Motivationsverlust</t>
   </si>
   <si>
-    <t>Unzureichende 
-Kompentenz</t>
-  </si>
-  <si>
-    <t>Langzeitkrankheit,
-Private Angelenheiten</t>
-  </si>
-  <si>
-    <t>Unterschätzung
-Workload</t>
-  </si>
-  <si>
-    <t>Ausfall Betreuer/
-Kunde</t>
+    <t>Versionsverwaltungssytem fällt aus</t>
+  </si>
+  <si>
+    <t>Langzeitkrankheit, Private Angelenheiten</t>
+  </si>
+  <si>
+    <t>Übernahme der Aufgaben von  ausgefallenem</t>
+  </si>
+  <si>
+    <t>Unzureichende Kompentenz</t>
+  </si>
+  <si>
+    <t>Unterschätzung Workload</t>
+  </si>
+  <si>
+    <t>Ausfall Betreuer/ Kunde</t>
+  </si>
+  <si>
+    <t>1x Netzwerk funktioniert nicht</t>
+  </si>
+  <si>
+    <t>David Espig</t>
+  </si>
+  <si>
+    <t>Kein Zugang auf das GitHub Projekt</t>
+  </si>
+  <si>
+    <t>GitHub Webseite nicht erreichbar oder wird überarbeitet</t>
+  </si>
+  <si>
+    <t>Kein Zugang auf das GitHub Projekt in der UniBwM</t>
+  </si>
+  <si>
+    <t>Mangelndes Fachwissen für die gestellte Aufgabe</t>
+  </si>
+  <si>
+    <t>Kein Ansprechpartner auf Kundenseite</t>
+  </si>
+  <si>
+    <t>Zeitverzögerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein Interesse mehr, </t>
+  </si>
+  <si>
+    <t>Falsche Einschätzung des Projektes</t>
+  </si>
+  <si>
+    <t>Zeitverzögerung, keine Fertigstelltung</t>
+  </si>
+  <si>
+    <t>Kritisch</t>
+  </si>
+  <si>
+    <t>Unerwünscht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
@@ -227,27 +259,33 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,432 +566,542 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="3"/>
+    <col min="10" max="10" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="5">
         <v>43383</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="7">
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43383</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="7">
+        <v>20000</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43383</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="7">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43383</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H6" s="7">
+        <v>60000</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6000</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43383</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>45000</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9000</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43383</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>45000</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9000</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43383</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="7">
         <v>30000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I9" s="7">
         <v>3000</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="63" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -967,9 +1115,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
